--- a/Code/Results/Cases/Case_5_158/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_158/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8390102914539455</v>
+        <v>0.799179801305371</v>
       </c>
       <c r="C2">
-        <v>0.08336325516189902</v>
+        <v>0.08293557258618023</v>
       </c>
       <c r="D2">
-        <v>0.07241756974676861</v>
+        <v>0.02163023039262413</v>
       </c>
       <c r="E2">
-        <v>0.0215471007231649</v>
+        <v>0.07654431705199727</v>
       </c>
       <c r="F2">
-        <v>7.29459955370163</v>
+        <v>5.863167701030648</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2007850294008762</v>
+        <v>0.2344677533487669</v>
       </c>
       <c r="K2">
-        <v>0.8305830387976414</v>
+        <v>0.8031111687674866</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2028579089367319</v>
+        <v>0.2915320632618261</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7339569993694965</v>
+        <v>0.7828399897699114</v>
       </c>
       <c r="C3">
-        <v>0.07146188124829678</v>
+        <v>0.08223725791580705</v>
       </c>
       <c r="D3">
-        <v>0.06281568380110514</v>
+        <v>0.02002985914074173</v>
       </c>
       <c r="E3">
-        <v>0.02068329969115723</v>
+        <v>0.0773216924432667</v>
       </c>
       <c r="F3">
-        <v>6.616449977215126</v>
+        <v>5.662669389073955</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1844983723661358</v>
+        <v>0.2304004207806258</v>
       </c>
       <c r="K3">
-        <v>0.7240976706064544</v>
+        <v>0.7884657395181307</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1797046757363248</v>
+        <v>0.2902225149972395</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6712928400745284</v>
+        <v>0.7735445472802667</v>
       </c>
       <c r="C4">
-        <v>0.06444980288610225</v>
+        <v>0.0819253811699383</v>
       </c>
       <c r="D4">
-        <v>0.05703321547559881</v>
+        <v>0.01907601518173152</v>
       </c>
       <c r="E4">
-        <v>0.02022121412802669</v>
+        <v>0.0778505462825354</v>
       </c>
       <c r="F4">
-        <v>6.2067500760526</v>
+        <v>5.540014274568676</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1747156616256618</v>
+        <v>0.2279588057310491</v>
       </c>
       <c r="K4">
-        <v>0.6607201714070641</v>
+        <v>0.7802822408273755</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1660349803077601</v>
+        <v>0.2896888111423515</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6461710136070167</v>
+        <v>0.7699415970101313</v>
       </c>
       <c r="C5">
-        <v>0.06165822494990891</v>
+        <v>0.08182756097004074</v>
       </c>
       <c r="D5">
-        <v>0.05470026283054352</v>
+        <v>0.0186944011046819</v>
       </c>
       <c r="E5">
-        <v>0.02004914510097855</v>
+        <v>0.07807903105058145</v>
       </c>
       <c r="F5">
-        <v>6.041244297285289</v>
+        <v>5.490141141982718</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1707778818323717</v>
+        <v>0.2269777854045287</v>
       </c>
       <c r="K5">
-        <v>0.6353443564403705</v>
+        <v>0.7771503040802941</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1605892286648185</v>
+        <v>0.2895392314254472</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6420232481510482</v>
+        <v>0.7693544938100558</v>
       </c>
       <c r="C6">
-        <v>0.06119843493620181</v>
+        <v>0.0818130824605845</v>
       </c>
       <c r="D6">
-        <v>0.05431415555165842</v>
+        <v>0.01863145778633424</v>
       </c>
       <c r="E6">
-        <v>0.02002152778533883</v>
+        <v>0.07811775463631321</v>
       </c>
       <c r="F6">
-        <v>6.013843374694602</v>
+        <v>5.481866270475791</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1701267976079919</v>
+        <v>0.2268157290217587</v>
       </c>
       <c r="K6">
-        <v>0.6311564953405338</v>
+        <v>0.7766424893711843</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1596921513082492</v>
+        <v>0.2895184932018218</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6709524213697762</v>
+        <v>0.7734952079948414</v>
       </c>
       <c r="C7">
-        <v>0.06441189839263473</v>
+        <v>0.08192394357089938</v>
       </c>
       <c r="D7">
-        <v>0.05700166382887772</v>
+        <v>0.01907084011644855</v>
       </c>
       <c r="E7">
-        <v>0.02021882899306782</v>
+        <v>0.07785357516713276</v>
       </c>
       <c r="F7">
-        <v>6.204512427214866</v>
+        <v>5.539341228362446</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1746623654003514</v>
+        <v>0.2279455189098272</v>
       </c>
       <c r="K7">
-        <v>0.6603761850070811</v>
+        <v>0.7802391815194625</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1659610477911677</v>
+        <v>0.2896865189980851</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8023759448950045</v>
+        <v>0.7933925774970305</v>
       </c>
       <c r="C8">
-        <v>0.07919305560423595</v>
+        <v>0.082670458681946</v>
       </c>
       <c r="D8">
-        <v>0.06908022184367724</v>
+        <v>0.02107235336583813</v>
       </c>
       <c r="E8">
-        <v>0.02123449750637185</v>
+        <v>0.07680166543637235</v>
       </c>
       <c r="F8">
-        <v>7.059240445221349</v>
+        <v>5.793939814886784</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1951205643952036</v>
+        <v>0.2330537298675708</v>
       </c>
       <c r="K8">
-        <v>0.793417281745775</v>
+        <v>0.7978932417926217</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.1947532776410128</v>
+        <v>0.2910243682619509</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.077103426625627</v>
+        <v>0.8382822427379324</v>
       </c>
       <c r="C9">
-        <v>0.1109460965571856</v>
+        <v>0.08506772311520194</v>
       </c>
       <c r="D9">
-        <v>0.0939128449150104</v>
+        <v>0.02523291214817647</v>
       </c>
       <c r="E9">
-        <v>0.02381514598275203</v>
+        <v>0.07514736684023759</v>
       </c>
       <c r="F9">
-        <v>8.79997750400787</v>
+        <v>6.296985270176094</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2372591874801628</v>
+        <v>0.2435165698313142</v>
       </c>
       <c r="K9">
-        <v>1.072889339200657</v>
+        <v>0.8389568695930905</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2561867763144221</v>
+        <v>0.2957975146957814</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.293104647709328</v>
+        <v>0.8748771173451075</v>
       </c>
       <c r="C10">
-        <v>0.1366317313091372</v>
+        <v>0.08740670714408338</v>
       </c>
       <c r="D10">
-        <v>0.1132444058220727</v>
+        <v>0.02844348372111227</v>
       </c>
       <c r="E10">
-        <v>0.02614403449318203</v>
+        <v>0.07418042196780306</v>
       </c>
       <c r="F10">
-        <v>10.13635491427419</v>
+        <v>6.669182482728189</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2699119992485919</v>
+        <v>0.2514809082080092</v>
       </c>
       <c r="K10">
-        <v>1.293743502263908</v>
+        <v>0.8730971014588249</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3053526283276753</v>
+        <v>0.3006223303459592</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.395426349615406</v>
+        <v>0.8923181208078006</v>
       </c>
       <c r="C11">
-        <v>0.1490043519578705</v>
+        <v>0.08859817342992926</v>
       </c>
       <c r="D11">
-        <v>0.122374695004325</v>
+        <v>0.02993967384770713</v>
       </c>
       <c r="E11">
-        <v>0.02731666338915595</v>
+        <v>0.07379438130722704</v>
       </c>
       <c r="F11">
-        <v>10.76142770221389</v>
+        <v>6.839140080640902</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2852532338748688</v>
+        <v>0.2551655899447383</v>
       </c>
       <c r="K11">
-        <v>1.398678762887954</v>
+        <v>0.8895003311529592</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3288543368796937</v>
+        <v>0.3031052282367952</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.434851988016675</v>
+        <v>0.8990373010483665</v>
       </c>
       <c r="C12">
-        <v>0.1538057153362757</v>
+        <v>0.08906783240850302</v>
       </c>
       <c r="D12">
-        <v>0.1258900617685157</v>
+        <v>0.03051154927837274</v>
       </c>
       <c r="E12">
-        <v>0.02777884262229513</v>
+        <v>0.07365592996841563</v>
       </c>
       <c r="F12">
-        <v>11.00103746632811</v>
+        <v>6.9035959455735</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2911440395942577</v>
+        <v>0.2565698372903853</v>
       </c>
       <c r="K12">
-        <v>1.439163311701463</v>
+        <v>0.8958380041117948</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3379423381536242</v>
+        <v>0.3040869891392006</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.426329143037663</v>
+        <v>0.8975850980903886</v>
       </c>
       <c r="C13">
-        <v>0.1527661907136917</v>
+        <v>0.08896585878504482</v>
       </c>
       <c r="D13">
-        <v>0.125130222324259</v>
+        <v>0.03038814721517724</v>
       </c>
       <c r="E13">
-        <v>0.02767846549805952</v>
+        <v>0.07368540407208002</v>
       </c>
       <c r="F13">
-        <v>10.94929619746142</v>
+        <v>6.889709858845833</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2898715315805873</v>
+        <v>0.2562670088159962</v>
       </c>
       <c r="K13">
-        <v>1.430409142140036</v>
+        <v>0.894467453028966</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.335976257906772</v>
+        <v>0.3038736998732858</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.398655731728525</v>
+        <v>0.8928686111120498</v>
       </c>
       <c r="C14">
-        <v>0.1493969284235135</v>
+        <v>0.08863644139402993</v>
       </c>
       <c r="D14">
-        <v>0.1226626860903366</v>
+        <v>0.02998661517648316</v>
       </c>
       <c r="E14">
-        <v>0.02735431228780705</v>
+        <v>0.07378283586886347</v>
       </c>
       <c r="F14">
-        <v>10.78107951347397</v>
+        <v>6.844440943435984</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2857361720592309</v>
+        <v>0.2552809386681076</v>
       </c>
       <c r="K14">
-        <v>1.401993806887276</v>
+        <v>0.8900192038597368</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3295980800610536</v>
+        <v>0.30318516505492</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.381796373627878</v>
+        <v>0.8899945727056036</v>
       </c>
       <c r="C15">
-        <v>0.1473488327667525</v>
+        <v>0.08843707440330206</v>
       </c>
       <c r="D15">
-        <v>0.1211590980214083</v>
+        <v>0.02974136055867405</v>
       </c>
       <c r="E15">
-        <v>0.02715817942090126</v>
+        <v>0.07384352265475869</v>
       </c>
       <c r="F15">
-        <v>10.67843480035077</v>
+        <v>6.816725130367558</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2832141093672078</v>
+        <v>0.2546781084031551</v>
       </c>
       <c r="K15">
-        <v>1.384689363174061</v>
+        <v>0.8873109673224917</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3257166023606359</v>
+        <v>0.3027688310856007</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.286507211140957</v>
+        <v>0.8737533228088239</v>
       </c>
       <c r="C16">
-        <v>0.1358384100458352</v>
+        <v>0.08733141934855837</v>
       </c>
       <c r="D16">
-        <v>0.1126552763522923</v>
+        <v>0.02834643669174852</v>
       </c>
       <c r="E16">
-        <v>0.02606983105949823</v>
+        <v>0.07420673321645843</v>
       </c>
       <c r="F16">
-        <v>10.09588652593553</v>
+        <v>6.658088647926775</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2689201554082956</v>
+        <v>0.2512413524754749</v>
       </c>
       <c r="K16">
-        <v>1.286984320809779</v>
+        <v>0.8720427262133228</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3038416599783886</v>
+        <v>0.3004658737157868</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.229154062763342</v>
+        <v>0.8639935084186448</v>
       </c>
       <c r="C17">
-        <v>0.1289648396240324</v>
+        <v>0.08668588425614132</v>
       </c>
       <c r="D17">
-        <v>0.1075310089547656</v>
+        <v>0.02749995592417775</v>
       </c>
       <c r="E17">
-        <v>0.02543240014426118</v>
+        <v>0.07444333288542992</v>
       </c>
       <c r="F17">
-        <v>9.743201266210747</v>
+        <v>6.560937960493135</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2602837047453193</v>
+        <v>0.2491488578227177</v>
       </c>
       <c r="K17">
-        <v>1.228260278683734</v>
+        <v>0.8629001139481147</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2907298175581943</v>
+        <v>0.2991269468429252</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.196541992411795</v>
+        <v>0.8584546077202901</v>
       </c>
       <c r="C18">
-        <v>0.1250749480912958</v>
+        <v>0.0863265767043373</v>
       </c>
       <c r="D18">
-        <v>0.1046146754494046</v>
+        <v>0.02701643123035069</v>
       </c>
       <c r="E18">
-        <v>0.02507629773602105</v>
+        <v>0.07458448560309172</v>
       </c>
       <c r="F18">
-        <v>9.541930459839222</v>
+        <v>6.505119748026203</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2553613547674729</v>
+        <v>0.2479511100294047</v>
       </c>
       <c r="K18">
-        <v>1.194897175078864</v>
+        <v>0.8577236255983394</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2832934625860588</v>
+        <v>0.2983839382442142</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.185561996187971</v>
+        <v>0.8565920435279111</v>
       </c>
       <c r="C19">
-        <v>0.1237683378078458</v>
+        <v>0.08620697564542468</v>
       </c>
       <c r="D19">
-        <v>0.1036323092686402</v>
+        <v>0.0268532880741148</v>
       </c>
       <c r="E19">
-        <v>0.02495748385008945</v>
+        <v>0.07463314792732056</v>
       </c>
       <c r="F19">
-        <v>9.474043182357264</v>
+        <v>6.486230891248709</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2537021569660283</v>
+        <v>0.2475465671853385</v>
       </c>
       <c r="K19">
-        <v>1.183669023457185</v>
+        <v>0.855985037258705</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2807930044636322</v>
+        <v>0.2981370203815317</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.235219849823181</v>
+        <v>0.8650247239918372</v>
       </c>
       <c r="C20">
-        <v>0.1296898435146687</v>
+        <v>0.08675336087448215</v>
       </c>
       <c r="D20">
-        <v>0.1080732212162729</v>
+        <v>0.02758971744988514</v>
       </c>
       <c r="E20">
-        <v>0.02549915321190355</v>
+        <v>0.07441762209687219</v>
       </c>
       <c r="F20">
-        <v>9.780578208085785</v>
+        <v>6.571273547251621</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2611983236671165</v>
+        <v>0.2493710066812866</v>
       </c>
       <c r="K20">
-        <v>1.234468048622489</v>
+        <v>0.8638648590043942</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2921145338471192</v>
+        <v>0.2992666716171257</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.406764847177215</v>
+        <v>0.8942508420063007</v>
       </c>
       <c r="C21">
-        <v>0.1503832615477165</v>
+        <v>0.08873269661368965</v>
       </c>
       <c r="D21">
-        <v>0.1233858066374154</v>
+        <v>0.03010440965546479</v>
       </c>
       <c r="E21">
-        <v>0.02744901587908366</v>
+        <v>0.07375400794184195</v>
       </c>
       <c r="F21">
-        <v>10.83040608557997</v>
+        <v>6.857734866146529</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2869485200257316</v>
+        <v>0.2555703282152422</v>
       </c>
       <c r="K21">
-        <v>1.410318870081852</v>
+        <v>0.891322334282961</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.33146617483429</v>
+        <v>0.3033862760384878</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.522888705705014</v>
+        <v>0.9140203154407516</v>
       </c>
       <c r="C22">
-        <v>0.164594322013528</v>
+        <v>0.09013407387348593</v>
       </c>
       <c r="D22">
-        <v>0.1337364961234329</v>
+        <v>0.03177888230653991</v>
       </c>
       <c r="E22">
-        <v>0.02883009077511467</v>
+        <v>0.0733653740793887</v>
       </c>
       <c r="F22">
-        <v>11.5337301692885</v>
+        <v>7.045518971013394</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3042586936805662</v>
+        <v>0.2596740768104695</v>
       </c>
       <c r="K22">
-        <v>1.529666583219353</v>
+        <v>0.91000284776851</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3582972373234554</v>
+        <v>0.3063208684494327</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.460509608395853</v>
+        <v>0.9034076365116732</v>
       </c>
       <c r="C23">
-        <v>0.1569404214717167</v>
+        <v>0.08937622166061487</v>
       </c>
       <c r="D23">
-        <v>0.1281772454309049</v>
+        <v>0.03088229421464916</v>
       </c>
       <c r="E23">
-        <v>0.0280825393808346</v>
+        <v>0.07356867279166757</v>
       </c>
       <c r="F23">
-        <v>11.15661707926085</v>
+        <v>6.945241981487982</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2949717714998314</v>
+        <v>0.2574790348253231</v>
       </c>
       <c r="K23">
-        <v>1.465525317546735</v>
+        <v>0.8999651958800428</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3438659762360956</v>
+        <v>0.3047324204470314</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.232476389978814</v>
+        <v>0.8645582867411292</v>
       </c>
       <c r="C24">
-        <v>0.129361877977928</v>
+        <v>0.08672281789162639</v>
       </c>
       <c r="D24">
-        <v>0.1078279953248824</v>
+        <v>0.02754912653343666</v>
       </c>
       <c r="E24">
-        <v>0.02546894200164651</v>
+        <v>0.07442922996948198</v>
       </c>
       <c r="F24">
-        <v>9.763675476084671</v>
+        <v>6.566600719721407</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2607846917886292</v>
+        <v>0.2492705568204627</v>
       </c>
       <c r="K24">
-        <v>1.231660283520398</v>
+        <v>0.8634284494902147</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2914881883223828</v>
+        <v>0.2992034187064192</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.000597009964849</v>
+        <v>0.8255062694881303</v>
       </c>
       <c r="C25">
-        <v>0.1019957277319889</v>
+        <v>0.08431838694237115</v>
       </c>
       <c r="D25">
-        <v>0.08703477228854695</v>
+        <v>0.02408109951926463</v>
       </c>
       <c r="E25">
-        <v>0.0230468626490552</v>
+        <v>0.07555122609507592</v>
       </c>
       <c r="F25">
-        <v>8.320400551169229</v>
+        <v>6.160462162629244</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2255987254483429</v>
+        <v>0.2406378098331317</v>
       </c>
       <c r="K25">
-        <v>0.9948922218094083</v>
+        <v>0.827153873776723</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2389390387700061</v>
+        <v>0.2942753584471589</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_158/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_158/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.799179801305371</v>
+        <v>0.839010291454457</v>
       </c>
       <c r="C2">
-        <v>0.08293557258618023</v>
+        <v>0.08336325516224008</v>
       </c>
       <c r="D2">
-        <v>0.02163023039262413</v>
+        <v>0.07241756974651992</v>
       </c>
       <c r="E2">
-        <v>0.07654431705199727</v>
+        <v>0.02154710072319332</v>
       </c>
       <c r="F2">
-        <v>5.863167701030648</v>
+        <v>7.294599553701602</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2344677533487669</v>
+        <v>0.2007850294006701</v>
       </c>
       <c r="K2">
-        <v>0.8031111687674866</v>
+        <v>0.830583038797414</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2915320632618261</v>
+        <v>0.2028579089367391</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7828399897699114</v>
+        <v>0.7339569993694397</v>
       </c>
       <c r="C3">
-        <v>0.08223725791580705</v>
+        <v>0.07146188124831099</v>
       </c>
       <c r="D3">
-        <v>0.02002985914074173</v>
+        <v>0.06281568380094882</v>
       </c>
       <c r="E3">
-        <v>0.0773216924432667</v>
+        <v>0.02068329969113414</v>
       </c>
       <c r="F3">
-        <v>5.662669389073955</v>
+        <v>6.616449977215098</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2304004207806258</v>
+        <v>0.1844983723661002</v>
       </c>
       <c r="K3">
-        <v>0.7884657395181307</v>
+        <v>0.7240976706063691</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2902225149972395</v>
+        <v>0.1797046757363248</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7735445472802667</v>
+        <v>0.6712928400745852</v>
       </c>
       <c r="C4">
-        <v>0.0819253811699383</v>
+        <v>0.06444980288615909</v>
       </c>
       <c r="D4">
-        <v>0.01907601518173152</v>
+        <v>0.05703321547583329</v>
       </c>
       <c r="E4">
-        <v>0.0778505462825354</v>
+        <v>0.02022121412802136</v>
       </c>
       <c r="F4">
-        <v>5.540014274568676</v>
+        <v>6.206750076052515</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2279588057310491</v>
+        <v>0.1747156616256973</v>
       </c>
       <c r="K4">
-        <v>0.7802822408273755</v>
+        <v>0.6607201714072062</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2896888111423515</v>
+        <v>0.1660349803077565</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7699415970101313</v>
+        <v>0.6461710136070167</v>
       </c>
       <c r="C5">
-        <v>0.08182756097004074</v>
+        <v>0.06165822494986628</v>
       </c>
       <c r="D5">
-        <v>0.0186944011046819</v>
+        <v>0.05470026283074958</v>
       </c>
       <c r="E5">
-        <v>0.07807903105058145</v>
+        <v>0.02004914510096434</v>
       </c>
       <c r="F5">
-        <v>5.490141141982718</v>
+        <v>6.041244297285232</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2269777854045287</v>
+        <v>0.1707778818323931</v>
       </c>
       <c r="K5">
-        <v>0.7771503040802941</v>
+        <v>0.6353443564403705</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2895392314254472</v>
+        <v>0.1605892286648043</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7693544938100558</v>
+        <v>0.6420232481511334</v>
       </c>
       <c r="C6">
-        <v>0.0818130824605845</v>
+        <v>0.06119843493570443</v>
       </c>
       <c r="D6">
-        <v>0.01863145778633424</v>
+        <v>0.05431415555174368</v>
       </c>
       <c r="E6">
-        <v>0.07811775463631321</v>
+        <v>0.02002152778538502</v>
       </c>
       <c r="F6">
-        <v>5.481866270475791</v>
+        <v>6.013843374694517</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2268157290217587</v>
+        <v>0.1701267976081908</v>
       </c>
       <c r="K6">
-        <v>0.7766424893711843</v>
+        <v>0.6311564953404059</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2895184932018218</v>
+        <v>0.1596921513082314</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7734952079948414</v>
+        <v>0.670952421370032</v>
       </c>
       <c r="C7">
-        <v>0.08192394357089938</v>
+        <v>0.06441189839240735</v>
       </c>
       <c r="D7">
-        <v>0.01907084011644855</v>
+        <v>0.05700166382847982</v>
       </c>
       <c r="E7">
-        <v>0.07785357516713276</v>
+        <v>0.02021882899307492</v>
       </c>
       <c r="F7">
-        <v>5.539341228362446</v>
+        <v>6.204512427214837</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2279455189098272</v>
+        <v>0.1746623654002661</v>
       </c>
       <c r="K7">
-        <v>0.7802391815194625</v>
+        <v>0.66037618500701</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2896865189980851</v>
+        <v>0.1659610477912032</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7933925774970305</v>
+        <v>0.8023759448949761</v>
       </c>
       <c r="C8">
-        <v>0.082670458681946</v>
+        <v>0.07919305560396595</v>
       </c>
       <c r="D8">
-        <v>0.02107235336583813</v>
+        <v>0.06908022184317986</v>
       </c>
       <c r="E8">
-        <v>0.07680166543637235</v>
+        <v>0.02123449750637896</v>
       </c>
       <c r="F8">
-        <v>5.793939814886784</v>
+        <v>7.059240445221377</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2330537298675708</v>
+        <v>0.1951205643949692</v>
       </c>
       <c r="K8">
-        <v>0.7978932417926217</v>
+        <v>0.7934172817457181</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2910243682619509</v>
+        <v>0.1947532776410341</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8382822427379324</v>
+        <v>1.077103426625996</v>
       </c>
       <c r="C9">
-        <v>0.08506772311520194</v>
+        <v>0.1109460965567166</v>
       </c>
       <c r="D9">
-        <v>0.02523291214817647</v>
+        <v>0.09391284491498197</v>
       </c>
       <c r="E9">
-        <v>0.07514736684023759</v>
+        <v>0.02381514598271295</v>
       </c>
       <c r="F9">
-        <v>6.296985270176094</v>
+        <v>8.799977504007842</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2435165698313142</v>
+        <v>0.2372591874802055</v>
       </c>
       <c r="K9">
-        <v>0.8389568695930905</v>
+        <v>1.072889339200714</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2957975146957814</v>
+        <v>0.256186776314415</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8748771173451075</v>
+        <v>1.293104647708958</v>
       </c>
       <c r="C10">
-        <v>0.08740670714408338</v>
+        <v>0.1366317313090661</v>
       </c>
       <c r="D10">
-        <v>0.02844348372111227</v>
+        <v>0.1132444058224351</v>
       </c>
       <c r="E10">
-        <v>0.07418042196780306</v>
+        <v>0.0261440344932069</v>
       </c>
       <c r="F10">
-        <v>6.669182482728189</v>
+        <v>10.13635491427428</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2514809082080092</v>
+        <v>0.2699119992486203</v>
       </c>
       <c r="K10">
-        <v>0.8730971014588249</v>
+        <v>1.293743502263709</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3006223303459592</v>
+        <v>0.3053526283277108</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8923181208078006</v>
+        <v>1.395426349615406</v>
       </c>
       <c r="C11">
-        <v>0.08859817342992926</v>
+        <v>0.1490043519583537</v>
       </c>
       <c r="D11">
-        <v>0.02993967384770713</v>
+        <v>0.1223746950038702</v>
       </c>
       <c r="E11">
-        <v>0.07379438130722704</v>
+        <v>0.02731666338915595</v>
       </c>
       <c r="F11">
-        <v>6.839140080640902</v>
+        <v>10.76142770221389</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2551655899447383</v>
+        <v>0.2852532338748688</v>
       </c>
       <c r="K11">
-        <v>0.8895003311529592</v>
+        <v>1.398678762887982</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3031052282367952</v>
+        <v>0.3288543368796937</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8990373010483665</v>
+        <v>1.434851988017272</v>
       </c>
       <c r="C12">
-        <v>0.08906783240850302</v>
+        <v>0.1538057153371142</v>
       </c>
       <c r="D12">
-        <v>0.03051154927837274</v>
+        <v>0.1258900617684304</v>
       </c>
       <c r="E12">
-        <v>0.07365592996841563</v>
+        <v>0.02777884262231289</v>
       </c>
       <c r="F12">
-        <v>6.9035959455735</v>
+        <v>11.00103746632817</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2565698372903853</v>
+        <v>0.2911440395940872</v>
       </c>
       <c r="K12">
-        <v>0.8958380041117948</v>
+        <v>1.439163311701378</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3040869891392006</v>
+        <v>0.3379423381536029</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8975850980903886</v>
+        <v>1.426329143037407</v>
       </c>
       <c r="C13">
-        <v>0.08896585878504482</v>
+        <v>0.1527661907131943</v>
       </c>
       <c r="D13">
-        <v>0.03038814721517724</v>
+        <v>0.1251302223240032</v>
       </c>
       <c r="E13">
-        <v>0.07368540407208002</v>
+        <v>0.02767846549805242</v>
       </c>
       <c r="F13">
-        <v>6.889709858845833</v>
+        <v>10.94929619746142</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2562670088159962</v>
+        <v>0.2898715315806868</v>
       </c>
       <c r="K13">
-        <v>0.894467453028966</v>
+        <v>1.430409142140093</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3038736998732858</v>
+        <v>0.3359762579068075</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8928686111120498</v>
+        <v>1.39865573172861</v>
       </c>
       <c r="C14">
-        <v>0.08863644139402993</v>
+        <v>0.1493969284235277</v>
       </c>
       <c r="D14">
-        <v>0.02998661517648316</v>
+        <v>0.1226626860903934</v>
       </c>
       <c r="E14">
-        <v>0.07378283586886347</v>
+        <v>0.02735431228770402</v>
       </c>
       <c r="F14">
-        <v>6.844440943435984</v>
+        <v>10.78107951347397</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2552809386681076</v>
+        <v>0.2857361720595719</v>
       </c>
       <c r="K14">
-        <v>0.8900192038597368</v>
+        <v>1.401993806887504</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.30318516505492</v>
+        <v>0.3295980800610181</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8899945727056036</v>
+        <v>1.381796373628106</v>
       </c>
       <c r="C15">
-        <v>0.08843707440330206</v>
+        <v>0.1473488327663119</v>
       </c>
       <c r="D15">
-        <v>0.02974136055867405</v>
+        <v>0.1211590980214368</v>
       </c>
       <c r="E15">
-        <v>0.07384352265475869</v>
+        <v>0.02715817942091014</v>
       </c>
       <c r="F15">
-        <v>6.816725130367558</v>
+        <v>10.67843480035077</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2546781084031551</v>
+        <v>0.2832141093670231</v>
       </c>
       <c r="K15">
-        <v>0.8873109673224917</v>
+        <v>1.38468936317409</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3027688310856007</v>
+        <v>0.3257166023606572</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8737533228088239</v>
+        <v>1.286507211140929</v>
       </c>
       <c r="C16">
-        <v>0.08733141934855837</v>
+        <v>0.1358384100449115</v>
       </c>
       <c r="D16">
-        <v>0.02834643669174852</v>
+        <v>0.1126552763522639</v>
       </c>
       <c r="E16">
-        <v>0.07420673321645843</v>
+        <v>0.02606983105942717</v>
       </c>
       <c r="F16">
-        <v>6.658088647926775</v>
+        <v>10.09588652593558</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2512413524754749</v>
+        <v>0.268920155408253</v>
       </c>
       <c r="K16">
-        <v>0.8720427262133228</v>
+        <v>1.286984320809609</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3004658737157868</v>
+        <v>0.3038416599783176</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8639935084186448</v>
+        <v>1.229154062763484</v>
       </c>
       <c r="C17">
-        <v>0.08668588425614132</v>
+        <v>0.1289648396230092</v>
       </c>
       <c r="D17">
-        <v>0.02749995592417775</v>
+        <v>0.1075310089544317</v>
       </c>
       <c r="E17">
-        <v>0.07444333288542992</v>
+        <v>0.0254324001441617</v>
       </c>
       <c r="F17">
-        <v>6.560937960493135</v>
+        <v>9.743201266210946</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2491488578227177</v>
+        <v>0.2602837047453335</v>
       </c>
       <c r="K17">
-        <v>0.8629001139481147</v>
+        <v>1.228260278683763</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2991269468429252</v>
+        <v>0.2907298175581943</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8584546077202901</v>
+        <v>1.196541992411966</v>
       </c>
       <c r="C18">
-        <v>0.0863265767043373</v>
+        <v>0.1250749480918358</v>
       </c>
       <c r="D18">
-        <v>0.02701643123035069</v>
+        <v>0.1046146754497173</v>
       </c>
       <c r="E18">
-        <v>0.07458448560309172</v>
+        <v>0.02507629773600151</v>
       </c>
       <c r="F18">
-        <v>6.505119748026203</v>
+        <v>9.541930459839108</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2479511100294047</v>
+        <v>0.2553613547674587</v>
       </c>
       <c r="K18">
-        <v>0.8577236255983394</v>
+        <v>1.194897175078921</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2983839382442142</v>
+        <v>0.2832934625860446</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8565920435279111</v>
+        <v>1.185561996188056</v>
       </c>
       <c r="C19">
-        <v>0.08620697564542468</v>
+        <v>0.1237683378082295</v>
       </c>
       <c r="D19">
-        <v>0.0268532880741148</v>
+        <v>0.1036323092685691</v>
       </c>
       <c r="E19">
-        <v>0.07463314792732056</v>
+        <v>0.02495748385000596</v>
       </c>
       <c r="F19">
-        <v>6.486230891248709</v>
+        <v>9.474043182357377</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2475465671853385</v>
+        <v>0.2537021569658862</v>
       </c>
       <c r="K19">
-        <v>0.855985037258705</v>
+        <v>1.183669023457213</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2981370203815317</v>
+        <v>0.2807930044635611</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8650247239918372</v>
+        <v>1.235219849823238</v>
       </c>
       <c r="C20">
-        <v>0.08675336087448215</v>
+        <v>0.1296898435140861</v>
       </c>
       <c r="D20">
-        <v>0.02758971744988514</v>
+        <v>0.1080732212163724</v>
       </c>
       <c r="E20">
-        <v>0.07441762209687219</v>
+        <v>0.02549915321191243</v>
       </c>
       <c r="F20">
-        <v>6.571273547251621</v>
+        <v>9.780578208086013</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2493710066812866</v>
+        <v>0.2611983236673012</v>
       </c>
       <c r="K20">
-        <v>0.8638648590043942</v>
+        <v>1.234468048622574</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2992666716171257</v>
+        <v>0.2921145338471547</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8942508420063007</v>
+        <v>1.406764847177385</v>
       </c>
       <c r="C21">
-        <v>0.08873269661368965</v>
+        <v>0.1503832615478444</v>
       </c>
       <c r="D21">
-        <v>0.03010440965546479</v>
+        <v>0.1233858066377849</v>
       </c>
       <c r="E21">
-        <v>0.07375400794184195</v>
+        <v>0.02744901587907123</v>
       </c>
       <c r="F21">
-        <v>6.857734866146529</v>
+        <v>10.8304060855798</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2555703282152422</v>
+        <v>0.286948520025561</v>
       </c>
       <c r="K21">
-        <v>0.891322334282961</v>
+        <v>1.410318870081682</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3033862760384878</v>
+        <v>0.3314661748342758</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9140203154407516</v>
+        <v>1.522888705705583</v>
       </c>
       <c r="C22">
-        <v>0.09013407387348593</v>
+        <v>0.1645943220140964</v>
       </c>
       <c r="D22">
-        <v>0.03177888230653991</v>
+        <v>0.1337364961237455</v>
       </c>
       <c r="E22">
-        <v>0.0733653740793887</v>
+        <v>0.0288300907751573</v>
       </c>
       <c r="F22">
-        <v>7.045518971013394</v>
+        <v>11.53373016928833</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2596740768104695</v>
+        <v>0.3042586936805662</v>
       </c>
       <c r="K22">
-        <v>0.91000284776851</v>
+        <v>1.529666583219466</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3063208684494327</v>
+        <v>0.3582972373234483</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9034076365116732</v>
+        <v>1.46050960839608</v>
       </c>
       <c r="C23">
-        <v>0.08937622166061487</v>
+        <v>0.1569404214721857</v>
       </c>
       <c r="D23">
-        <v>0.03088229421464916</v>
+        <v>0.1281772454308765</v>
       </c>
       <c r="E23">
-        <v>0.07356867279166757</v>
+        <v>0.02808253938076888</v>
       </c>
       <c r="F23">
-        <v>6.945241981487982</v>
+        <v>11.1566170792608</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2574790348253231</v>
+        <v>0.2949717715000872</v>
       </c>
       <c r="K23">
-        <v>0.8999651958800428</v>
+        <v>1.465525317546366</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3047324204470314</v>
+        <v>0.3438659762360885</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8645582867411292</v>
+        <v>1.232476389978672</v>
       </c>
       <c r="C24">
-        <v>0.08672281789162639</v>
+        <v>0.1293618779778569</v>
       </c>
       <c r="D24">
-        <v>0.02754912653343666</v>
+        <v>0.1078279953250174</v>
       </c>
       <c r="E24">
-        <v>0.07442922996948198</v>
+        <v>0.02546894200160565</v>
       </c>
       <c r="F24">
-        <v>6.566600719721407</v>
+        <v>9.76367547608487</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2492705568204627</v>
+        <v>0.2607846917886718</v>
       </c>
       <c r="K24">
-        <v>0.8634284494902147</v>
+        <v>1.231660283520256</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2992034187064192</v>
+        <v>0.291488188322333</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8255062694881303</v>
+        <v>1.000597009964878</v>
       </c>
       <c r="C25">
-        <v>0.08431838694237115</v>
+        <v>0.1019957277319747</v>
       </c>
       <c r="D25">
-        <v>0.02408109951926463</v>
+        <v>0.08703477228863932</v>
       </c>
       <c r="E25">
-        <v>0.07555122609507592</v>
+        <v>0.02304686264913336</v>
       </c>
       <c r="F25">
-        <v>6.160462162629244</v>
+        <v>8.320400551169115</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2406378098331317</v>
+        <v>0.2255987254483571</v>
       </c>
       <c r="K25">
-        <v>0.827153873776723</v>
+        <v>0.9948922218095788</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2942753584471589</v>
+        <v>0.2389390387700132</v>
       </c>
       <c r="N25">
         <v>0</v>
